--- a/data/2023/Fell/Extracted Wardle Skyline.xlsx
+++ b/data/2023/Fell/Extracted Wardle Skyline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\source\repos\InterClub\data\2023\Fell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D4B676-CB4B-4512-ADF8-19C91962FFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885CE520-420D-4964-9646-E317C1D53F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="2085" windowWidth="19515" windowHeight="11295" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positions" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="93">
   <si>
     <t>Vet</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Open</t>
-  </si>
-  <si>
-    <t>Totals</t>
   </si>
   <si>
     <t>Category</t>
@@ -657,6 +654,9 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -672,9 +672,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1203,27 +1200,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="N1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" s="11" customFormat="1" ht="22.15" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>9</v>
@@ -1244,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>13</v>
@@ -1253,7 +1250,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>15</v>
@@ -1283,17 +1280,17 @@
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="I4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K4" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4" s="14"/>
       <c r="N4" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="23">
         <v>53.45</v>
@@ -1312,17 +1309,17 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="I5" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K5" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O5" s="23">
         <v>56.37</v>
@@ -1341,17 +1338,17 @@
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="I6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K6" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O6" s="29">
         <v>46388</v>
@@ -1368,17 +1365,17 @@
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="I7" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" s="29">
         <v>46753</v>
@@ -1399,17 +1396,17 @@
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="I8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K8" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O8" s="29">
         <v>37989</v>
@@ -1430,17 +1427,17 @@
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="I9" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="K9" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="14"/>
       <c r="N9" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O9" s="29">
         <v>40547</v>
@@ -1463,17 +1460,17 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="I10" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" s="29">
         <v>43469</v>
@@ -1496,17 +1493,17 @@
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="I11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="K11" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="14"/>
       <c r="N11" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O11" s="29">
         <v>41645</v>
@@ -1527,17 +1524,17 @@
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="I12" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="K12" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M12" s="14"/>
       <c r="N12" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="29">
         <v>21191</v>
@@ -1558,17 +1555,17 @@
         <v>1</v>
       </c>
       <c r="I13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="K13" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="29">
         <v>40916</v>
@@ -1591,17 +1588,17 @@
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="I14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="K14" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O14" s="29">
         <v>38362</v>
@@ -1624,17 +1621,17 @@
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="I15" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="K15" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="14"/>
       <c r="N15" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O15" s="29">
         <v>43112</v>
@@ -1653,17 +1650,17 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="I16" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M16" s="14"/>
       <c r="N16" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O16" s="29">
         <v>13892</v>
@@ -1688,17 +1685,17 @@
         <v>2</v>
       </c>
       <c r="I17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="K17" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M17" s="14"/>
       <c r="N17" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O17" s="29">
         <v>12434</v>
@@ -1723,17 +1720,17 @@
       </c>
       <c r="G18" s="28"/>
       <c r="I18" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M18" s="14"/>
       <c r="N18" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O18" s="29">
         <v>39100</v>
@@ -1756,17 +1753,17 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="I19" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="K19" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="14"/>
       <c r="N19" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O19" s="29">
         <v>13535</v>
@@ -1793,17 +1790,17 @@
         <v>3</v>
       </c>
       <c r="I20" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="K20" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O20" s="29">
         <v>45312</v>
@@ -1824,17 +1821,17 @@
         <v>4</v>
       </c>
       <c r="I21" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="K21" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M21" s="14"/>
       <c r="N21" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O21" s="29">
         <v>15363</v>
@@ -1859,17 +1856,17 @@
         <v>5</v>
       </c>
       <c r="I22" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="K22" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M22" s="14"/>
       <c r="N22" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O22" s="29">
         <v>17554</v>
@@ -1894,17 +1891,17 @@
       </c>
       <c r="G23" s="28"/>
       <c r="I23" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="K23" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M23" s="14"/>
       <c r="N23" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O23" s="29">
         <v>47141</v>
@@ -1927,17 +1924,17 @@
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="I24" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="K24" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M24" s="14"/>
       <c r="N24" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O24" s="29">
         <v>11348</v>
@@ -1964,20 +1961,20 @@
         <v>6</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M25" s="14"/>
       <c r="N25" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O25" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" ht="11.45" customHeight="1">
@@ -1997,20 +1994,20 @@
         <v>7</v>
       </c>
       <c r="I26" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="K26" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O26" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" ht="11.45" customHeight="1">
@@ -2032,20 +2029,20 @@
         <v>8</v>
       </c>
       <c r="I27" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="K27" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M27" s="14"/>
       <c r="N27" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O27" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="11.45" customHeight="1">
@@ -6372,7 +6369,7 @@
   </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
@@ -6638,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="12" customHeight="1">
@@ -6957,13 +6954,13 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="33">
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="33">
         <v>28</v>
       </c>
     </row>
@@ -6971,13 +6968,13 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="33">
         <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="33">
         <v>29</v>
       </c>
     </row>
@@ -6985,13 +6982,13 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="33">
         <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="33">
         <v>27</v>
       </c>
     </row>
@@ -6999,13 +6996,13 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="33">
         <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="33">
         <v>29</v>
       </c>
     </row>
@@ -7013,13 +7010,13 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="33">
         <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="33">
         <v>25</v>
       </c>
     </row>
@@ -7027,13 +7024,13 @@
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="33">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7041,13 +7038,13 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="33">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7063,13 +7060,13 @@
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="33">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="33">
         <v>4</v>
       </c>
     </row>
@@ -7077,13 +7074,13 @@
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="33">
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="33">
         <v>2</v>
       </c>
     </row>
@@ -7091,13 +7088,13 @@
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="33">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="33">
         <v>4</v>
       </c>
     </row>
@@ -7105,13 +7102,13 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="33">
         <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7119,13 +7116,13 @@
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="33">
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7133,13 +7130,13 @@
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="33">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7147,13 +7144,13 @@
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="33">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7162,14 +7159,14 @@
         <v>18</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="33">
         <v>10</v>
       </c>
       <c r="E23" s="3"/>
@@ -7178,7 +7175,7 @@
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="33">
         <v>10</v>
       </c>
       <c r="E24" s="3"/>
@@ -7187,7 +7184,7 @@
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="33">
         <v>3</v>
       </c>
       <c r="E25" s="3"/>
@@ -7196,7 +7193,7 @@
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="33">
         <v>7</v>
       </c>
       <c r="E26" s="3"/>
@@ -7205,7 +7202,7 @@
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="33">
         <v>0</v>
       </c>
       <c r="E27" s="3"/>
@@ -7214,7 +7211,7 @@
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="33">
         <v>0</v>
       </c>
       <c r="E28" s="3"/>
@@ -7223,7 +7220,7 @@
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="33">
         <v>0</v>
       </c>
       <c r="E29" s="3"/>
@@ -7248,10 +7245,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A3:L48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.25"/>
@@ -7259,238 +7256,23 @@
     <col min="1" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I10" si="0">SUM(B4:H4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="12" spans="1:12">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" ref="I13:I19" si="1">SUM(B13:H13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="21" spans="1:12">
       <c r="A21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" ref="I22:I28" si="2">SUM(B22:H22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="5" t="s">
@@ -7498,206 +7280,17 @@
       </c>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" ref="I31:I37" si="3">SUM(B31:H31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="39" spans="1:12">
       <c r="A39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" ref="I40:I46" si="4">SUM(B40:H40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I46" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="48" spans="1:12">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
       <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="1">
-        <f t="shared" ref="I49:I55" si="5">SUM(B49:H49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I51" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I53" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:L55">
